--- a/results/analysis/algo_comparison.xlsx
+++ b/results/analysis/algo_comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicflocco/Documents/GitHub/CSC381_FinalProject/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicflocco/Documents/GitHub/CSC381_FinalProject/results/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023E8896-EB1F-9F47-BCE0-DA48D99A5F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C881940-627E-A846-9B72-82F7C58EB53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hybrid_weight_exp!$A$1:$F$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Algo Comparison'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Algo Comparison'!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Algo Comparison'!$D$2:$D$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Algo Comparison'!$G$2:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>model</t>
   </si>
@@ -182,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>len(SE list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage </t>
   </si>
 </sst>
 </file>
@@ -649,7 +659,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -692,15 +702,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -740,6 +754,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3083,10 +3098,10 @@
                   <c:v>0.65052219442539505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67005999999999999</c:v>
+                  <c:v>0.81093999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31235000000000002</c:v>
+                  <c:v>0.76539800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.81696487238239501</c:v>
@@ -3118,10 +3133,89 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="1084826527"/>
         <c:axId val="1078650863"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Coverage</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Algo Comparison'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90896999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87694000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99436000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99507000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99587000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8139-0F47-A6AA-0385B2165807}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1084826527"/>
+        <c:axId val="1078650863"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1084826527"/>
         <c:scaling>
@@ -3300,8 +3394,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.87741687439823779"/>
           <c:y val="0.13339877669476338"/>
-          <c:w val="0.10080758121315238"/>
-          <c:h val="0.1607649704579879"/>
+          <c:w val="0.12258316703463283"/>
+          <c:h val="0.17650109016143428"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5704,16 +5798,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>505690</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90053</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>170294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>658090</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>93517</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>669635</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24244</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7216,10 +7310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7230,7 +7324,7 @@
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -7247,10 +7341,13 @@
         <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -7269,8 +7366,12 @@
       <c r="F2" s="3">
         <v>90897</v>
       </c>
+      <c r="G2" s="6">
+        <f>F2/100000</f>
+        <v>0.90896999999999994</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -7289,8 +7390,12 @@
       <c r="F3" s="3">
         <v>87694</v>
       </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G11" si="0">F3/100000</f>
+        <v>0.87694000000000005</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -7309,8 +7414,12 @@
       <c r="F4" s="3">
         <v>97029</v>
       </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97028999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -7329,8 +7438,12 @@
       <c r="F5" s="3">
         <v>97014</v>
       </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97014</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -7341,7 +7454,7 @@
         <v>0.95215825241580898</v>
       </c>
       <c r="D6" s="3">
-        <v>0.67005999999999999</v>
+        <v>0.81093999999999999</v>
       </c>
       <c r="E6" s="3">
         <v>0.85538000000000003</v>
@@ -7349,8 +7462,11 @@
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -7361,7 +7477,7 @@
         <v>0.88853742763285903</v>
       </c>
       <c r="D7" s="3">
-        <v>0.31235000000000002</v>
+        <v>0.76539800000000002</v>
       </c>
       <c r="E7" s="3">
         <v>0.40368999999999999</v>
@@ -7369,8 +7485,11 @@
       <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -7389,8 +7508,12 @@
       <c r="F8" s="3">
         <v>99436</v>
       </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99436000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -7409,8 +7532,11 @@
       <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -7429,8 +7555,12 @@
       <c r="F10" s="3">
         <v>99507</v>
       </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99507000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -7449,8 +7579,12 @@
       <c r="F11" s="3">
         <v>99587</v>
       </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99587000000000003</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7458,7 +7592,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7466,14 +7600,14 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>0.73168</v>
       </c>

--- a/results/analysis/algo_comparison.xlsx
+++ b/results/analysis/algo_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicflocco/Documents/GitHub/CSC381_FinalProject/results/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C881940-627E-A846-9B72-82F7C58EB53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635D01A-E726-F44D-A695-2D90F3902C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hybrid_weight_exp!$A$1:$F$9</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Algo Comparison'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Algo Comparison'!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Algo Comparison'!$D$2:$D$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Algo Comparison'!$G$2:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2959,7 +2955,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8930118391051227E-2"/>
+          <c:y val="9.8727123230593142E-2"/>
+          <c:w val="0.90276981980530413"/>
+          <c:h val="0.69320234634714684"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2998,16 +3004,16 @@
                   <c:v>Item-based pearson </c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>NCF </c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>MF-ALS </c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>MF-SGD </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>TFIDF </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NCF </c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Hybrid item-based distance</c:v>
@@ -3037,16 +3043,16 @@
                   <c:v>0.67660116182159702</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.73682000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.95215825241580898</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.88853742763285903</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.04905767119681</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73682000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.02304850372011</c:v>
@@ -3098,16 +3104,16 @@
                   <c:v>0.65052219442539505</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.67569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.81093999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.76539800000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.81696487238239501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67569999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.80459084001731995</c:v>
@@ -3182,10 +3188,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.99436000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.99507000000000001</c:v>
@@ -3395,7 +3401,7 @@
           <c:x val="0.87741687439823779"/>
           <c:y val="0.13339877669476338"/>
           <c:w val="0.12258316703463283"/>
-          <c:h val="0.17650109016143428"/>
+          <c:h val="0.16373058884409894"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3468,6 +3474,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5798,16 +5805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>90053</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>170294</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447963</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>204930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>669635</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>24244</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>196271</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5833,6 +5840,615 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08197</cdr:x>
+      <cdr:y>0.90321</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64156</cdr:x>
+      <cdr:y>0.94676</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Right Brace 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20205039-BE8D-1BC5-9D08-88F1BCAC9A16}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="2657765" y="2277346"/>
+          <a:ext cx="207817" cy="4271817"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64943</cdr:x>
+      <cdr:y>0.90563</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73231</cdr:x>
+      <cdr:y>0.93503</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Right Brace 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC0C970-EFC8-FD54-A7F5-228123089CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="5203827" y="4074680"/>
+          <a:ext cx="140274" cy="632692"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74017</cdr:x>
+      <cdr:y>0.90563</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89564</cdr:x>
+      <cdr:y>0.93781</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Right Brace 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0457CC89-4F86-5041-ADBC-6BCA4D88A2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="6167006" y="3804226"/>
+          <a:ext cx="153549" cy="1186873"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34059</cdr:x>
+      <cdr:y>0.94628</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38748</cdr:x>
+      <cdr:y>0.99274</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE2A8A8-F830-AB3B-98D5-C987C9011821}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2600037" y="4514853"/>
+          <a:ext cx="357909" cy="221671"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CF</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66757</cdr:x>
+      <cdr:y>0.93902</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71264</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0D25E9-6D59-F636-2651-CA70DED7F5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5096163" y="4480216"/>
+          <a:ext cx="344056" cy="290945"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CB</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80067</cdr:x>
+      <cdr:y>0.93902</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84574</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83ABE432-74B7-EDFA-083C-B0085C717469}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6112164" y="4480216"/>
+          <a:ext cx="344056" cy="290945"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7312,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7445,19 +8061,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
-        <v>0.95215825241580898</v>
+        <v>0.73682000000000003</v>
       </c>
       <c r="D6" s="3">
-        <v>0.81093999999999999</v>
+        <v>0.67569999999999997</v>
       </c>
       <c r="E6" s="3">
-        <v>0.85538000000000003</v>
+        <v>0.85838000000000003</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
@@ -7468,19 +8084,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
-        <v>0.88853742763285903</v>
+        <v>0.95215825241580898</v>
       </c>
       <c r="D7" s="3">
-        <v>0.76539800000000002</v>
+        <v>0.81093999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>0.40368999999999999</v>
+        <v>0.85538000000000003</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>40</v>
@@ -7491,49 +8107,49 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3">
-        <v>1.04905767119681</v>
+        <v>0.88853742763285903</v>
       </c>
       <c r="D8" s="3">
-        <v>0.81696487238239501</v>
+        <v>0.76539800000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>1.0242351640110801</v>
-      </c>
-      <c r="F8" s="3">
-        <v>99436</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.99436000000000002</v>
+        <v>0.40368999999999999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3">
-        <v>0.73682000000000003</v>
+        <v>1.04905767119681</v>
       </c>
       <c r="D9" s="3">
-        <v>0.67569999999999997</v>
+        <v>0.81696487238239501</v>
       </c>
       <c r="E9" s="3">
-        <v>0.85838000000000003</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
+        <v>1.0242351640110801</v>
+      </c>
+      <c r="F9" s="3">
+        <v>99436</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99436000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">

--- a/results/analysis/algo_comparison.xlsx
+++ b/results/analysis/algo_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicflocco/Documents/GitHub/CSC381_FinalProject/results/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635D01A-E726-F44D-A695-2D90F3902C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2DDB9-6DB4-6B48-9F5D-235E3D402B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>model</t>
   </si>
@@ -133,28 +133,13 @@
     <t>Coverage (if applicable)</t>
   </si>
   <si>
-    <t>User-based distance</t>
-  </si>
-  <si>
     <t>IBD_SIG_THRESHOLD = 0.0, IBD_SIG_WEIGHT = 25</t>
-  </si>
-  <si>
-    <t>User-based pearson</t>
   </si>
   <si>
     <t>IBD_SIG_THRESHOLD = 0.3, IBD_SIG_WEIGHT = 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Item-based distance </t>
-  </si>
-  <si>
     <t>IBD_SIG_THRESHOLD = 0.0, IBD_SIG_WEIGHT = 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item-based pearson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF-ALS </t>
   </si>
   <si>
     <t>n_factors=2, user_reg=0.10000,  item_reg=0.10000, num_iters=50</t>
@@ -163,13 +148,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">MF-SGD </t>
-  </si>
-  <si>
     <t xml:space="preserve">n_factors=200, learning_rate alpha=0.020, reg beta=0.02000, max_iters=20, sgd_random=False </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFIDF </t>
   </si>
   <si>
     <t>TFIDF_THRESH = 0</t>
@@ -188,6 +167,33 @@
   </si>
   <si>
     <t xml:space="preserve">Coverage </t>
+  </si>
+  <si>
+    <t>UBD-CF</t>
+  </si>
+  <si>
+    <t>UBP-CF</t>
+  </si>
+  <si>
+    <t>IBP-CF</t>
+  </si>
+  <si>
+    <t>IBD-CF</t>
+  </si>
+  <si>
+    <t>MF-ALS-CF</t>
+  </si>
+  <si>
+    <t>MF-SGD-CF</t>
+  </si>
+  <si>
+    <t>TFIDF-CB</t>
+  </si>
+  <si>
+    <t>H-IBD</t>
+  </si>
+  <si>
+    <t>H-IBP</t>
   </si>
 </sst>
 </file>
@@ -2992,34 +2998,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>User-based distance</c:v>
+                  <c:v>UBD-CF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>User-based pearson</c:v>
+                  <c:v>UBP-CF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Item-based distance </c:v>
+                  <c:v>IBP-CF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Item-based pearson </c:v>
+                  <c:v>IBD-CF</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>NCF </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MF-ALS </c:v>
+                  <c:v>MF-ALS-CF</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MF-SGD </c:v>
+                  <c:v>MF-SGD-CF</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>TFIDF </c:v>
+                  <c:v>TFIDF-CB</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Hybrid item-based distance</c:v>
+                  <c:v>H-IBD</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Hybrid item-based pearson</c:v>
+                  <c:v>H-IBP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7757,7 +7763,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>27</v>
@@ -7928,8 +7934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7957,18 +7963,18 @@
         <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="3">
         <v>0.78434999999999999</v>
@@ -7989,10 +7995,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3">
         <v>0.74668000000000001</v>
@@ -8013,10 +8019,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3">
         <v>0.70339404277409501</v>
@@ -8037,10 +8043,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>0.67660116182159702</v>
@@ -8061,10 +8067,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
         <v>0.73682000000000003</v>
@@ -8076,7 +8082,7 @@
         <v>0.85838000000000003</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -8084,10 +8090,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>0.95215825241580898</v>
@@ -8099,7 +8105,7 @@
         <v>0.85538000000000003</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -8107,10 +8113,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>0.88853742763285903</v>
@@ -8122,7 +8128,7 @@
         <v>0.40368999999999999</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -8130,10 +8136,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>1.04905767119681</v>
@@ -8154,7 +8160,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -8178,7 +8184,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>

--- a/results/analysis/algo_comparison.xlsx
+++ b/results/analysis/algo_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicflocco/Documents/GitHub/CSC381_FinalProject/results/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2DDB9-6DB4-6B48-9F5D-235E3D402B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5C668-439D-C241-8056-73D762AC8879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="28040" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2969,7 +2969,7 @@
           <c:x val="7.8930118391051227E-2"/>
           <c:y val="9.8727123230593142E-2"/>
           <c:w val="0.90276981980530413"/>
-          <c:h val="0.69320234634714684"/>
+          <c:h val="0.77039529791595784"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5814,13 +5814,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>447963</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>204930</xdr:rowOff>
+      <xdr:rowOff>77929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>196271</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>196273</xdr:rowOff>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5852,11 +5852,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08197</cdr:x>
-      <cdr:y>0.90321</cdr:y>
+      <cdr:x>0.085</cdr:x>
+      <cdr:y>0.90805</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.64156</cdr:x>
+      <cdr:x>0.65366</cdr:x>
       <cdr:y>0.94676</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -5872,8 +5872,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="2657765" y="2277346"/>
-          <a:ext cx="207817" cy="4271817"/>
+          <a:off x="2727035" y="2254254"/>
+          <a:ext cx="184729" cy="4341090"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
           <a:avLst/>
@@ -5909,12 +5909,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64943</cdr:x>
-      <cdr:y>0.90563</cdr:y>
+      <cdr:x>0.65699</cdr:x>
+      <cdr:y>0.90805</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.73231</cdr:x>
-      <cdr:y>0.93503</cdr:y>
+      <cdr:x>0.73987</cdr:x>
+      <cdr:y>0.94434</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5929,8 +5929,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="5203827" y="4074680"/>
-          <a:ext cx="140274" cy="632692"/>
+          <a:off x="5245100" y="4102679"/>
+          <a:ext cx="173181" cy="632692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
           <a:avLst/>
@@ -6058,11 +6058,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.74017</cdr:x>
-      <cdr:y>0.90563</cdr:y>
+      <cdr:y>0.91047</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.89564</cdr:x>
-      <cdr:y>0.93781</cdr:y>
+      <cdr:x>0.88203</cdr:x>
+      <cdr:y>0.94434</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6077,8 +6077,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="6167006" y="3804226"/>
-          <a:ext cx="153549" cy="1186873"/>
+          <a:off x="6111010" y="3883316"/>
+          <a:ext cx="161634" cy="1082966"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rightBrace">
           <a:avLst/>
@@ -6205,12 +6205,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34059</cdr:x>
-      <cdr:y>0.94628</cdr:y>
+      <cdr:x>0.34815</cdr:x>
+      <cdr:y>0.93902</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.38748</cdr:x>
-      <cdr:y>0.99274</cdr:y>
+      <cdr:x>0.39504</cdr:x>
+      <cdr:y>0.98548</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6225,7 +6225,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2600037" y="4514853"/>
+          <a:off x="2657764" y="4480216"/>
           <a:ext cx="357909" cy="221671"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -6246,11 +6246,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66757</cdr:x>
+      <cdr:x>0.67514</cdr:x>
       <cdr:y>0.93902</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.71264</cdr:x>
+      <cdr:x>0.72021</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -6266,7 +6266,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5096163" y="4480216"/>
+          <a:off x="5153891" y="4480216"/>
           <a:ext cx="344056" cy="290945"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -6351,11 +6351,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.80067</cdr:x>
+      <cdr:x>0.7931</cdr:x>
       <cdr:y>0.93902</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.84574</cdr:x>
+      <cdr:x>0.83817</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -6371,7 +6371,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6112164" y="4480216"/>
+          <a:off x="6054436" y="4480216"/>
           <a:ext cx="344056" cy="290945"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -7935,7 +7935,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
